--- a/Resource/excel/W-玩家-框架属性-(框架维护,请勿修改).xlsx
+++ b/Resource/excel/W-玩家-框架属性-(框架维护,请勿修改).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -597,7 +597,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1212,7 +1212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>

--- a/Resource/excel/W-玩家-框架属性-(框架维护,请勿修改).xlsx
+++ b/Resource/excel/W-玩家-框架属性-(框架维护,请勿修改).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="143">
   <si>
     <t>LuaFile(string)</t>
   </si>
@@ -586,11 +586,19 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>是否创建</t>
+    <t>客户端属性</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Create(int)</t>
+    <t>Client(int)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield(int)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否屏蔽创建</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -598,7 +606,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -609,18 +617,21 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -628,18 +639,21 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -673,12 +687,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -1210,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK38"/>
+  <dimension ref="A1:AL38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1242,16 +1250,16 @@
     <col min="28" max="28" width="12.625" style="9" customWidth="1"/>
     <col min="29" max="29" width="14.875" style="9" customWidth="1"/>
     <col min="30" max="31" width="11.5" style="9" customWidth="1"/>
-    <col min="32" max="32" width="10.875" style="9" customWidth="1"/>
-    <col min="33" max="33" width="9.375" style="9" customWidth="1"/>
-    <col min="34" max="34" width="17.125" style="9" customWidth="1"/>
-    <col min="35" max="35" width="21.5" style="9" customWidth="1"/>
-    <col min="36" max="36" width="24.875" style="9" customWidth="1"/>
-    <col min="37" max="37" width="28.75" style="9" customWidth="1"/>
-    <col min="38" max="16384" width="9" style="9"/>
+    <col min="32" max="33" width="10.875" style="9" customWidth="1"/>
+    <col min="34" max="34" width="9.375" style="9" customWidth="1"/>
+    <col min="35" max="35" width="17.125" style="9" customWidth="1"/>
+    <col min="36" max="36" width="21.5" style="9" customWidth="1"/>
+    <col min="37" max="37" width="24.875" style="9" customWidth="1"/>
+    <col min="38" max="38" width="28.75" style="9" customWidth="1"/>
+    <col min="39" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>135</v>
@@ -1290,8 +1298,9 @@
       <c r="AH1" s="11"/>
       <c r="AI1" s="11"/>
       <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
     </row>
-    <row r="2" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>1</v>
@@ -1335,8 +1344,8 @@
       <c r="O2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="10" t="s">
-        <v>139</v>
+      <c r="P2" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>110</v>
@@ -1386,23 +1395,26 @@
       <c r="AF2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AG2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>0</v>
       </c>
@@ -1511,11 +1523,14 @@
       <c r="AJ3" s="12">
         <v>3</v>
       </c>
-      <c r="AK3" s="3">
+      <c r="AK3" s="12">
         <v>3</v>
       </c>
+      <c r="AL3" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>28</v>
       </c>
@@ -1561,8 +1576,8 @@
       <c r="O4" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="P4" s="13" t="s">
-        <v>140</v>
+      <c r="P4" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="Q4" s="13" t="s">
         <v>39</v>
@@ -1612,23 +1627,26 @@
       <c r="AF4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="AG4" s="13" t="s">
-        <v>0</v>
+      <c r="AG4" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="AH4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AI4" s="13" t="s">
+      <c r="AJ4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AJ4" s="13" t="s">
+      <c r="AK4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AL4" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>61</v>
       </c>
@@ -1657,7 +1675,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="14">
         <v>1</v>
@@ -1707,12 +1725,15 @@
       <c r="AF5" s="14">
         <v>1</v>
       </c>
-      <c r="AG5" s="14"/>
+      <c r="AG5" s="14">
+        <v>0</v>
+      </c>
       <c r="AH5" s="14"/>
       <c r="AI5" s="14"/>
       <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
     </row>
-    <row r="6" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
         <v>65</v>
       </c>
@@ -1737,7 +1758,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
       <c r="P6" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="15">
         <v>0</v>
@@ -1787,12 +1808,15 @@
       <c r="AF6" s="15">
         <v>0</v>
       </c>
-      <c r="AG6" s="15"/>
+      <c r="AG6" s="15">
+        <v>0</v>
+      </c>
       <c r="AH6" s="15"/>
       <c r="AI6" s="15"/>
       <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
     </row>
-    <row r="7" spans="1:37" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
         <v>67</v>
       </c>
@@ -1821,7 +1845,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="15">
         <v>0</v>
@@ -1871,12 +1895,15 @@
       <c r="AF7" s="15">
         <v>1</v>
       </c>
-      <c r="AG7" s="15"/>
+      <c r="AG7" s="15">
+        <v>0</v>
+      </c>
       <c r="AH7" s="15"/>
       <c r="AI7" s="15"/>
       <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
     </row>
-    <row r="8" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
         <v>68</v>
       </c>
@@ -1901,7 +1928,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="15">
         <v>0</v>
@@ -1951,12 +1978,15 @@
       <c r="AF8" s="15">
         <v>0</v>
       </c>
-      <c r="AG8" s="15"/>
+      <c r="AG8" s="15">
+        <v>0</v>
+      </c>
       <c r="AH8" s="15"/>
       <c r="AI8" s="15"/>
       <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
     </row>
-    <row r="9" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
         <v>71</v>
       </c>
@@ -1981,7 +2011,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
       <c r="P9" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="15">
         <v>0</v>
@@ -2031,12 +2061,15 @@
       <c r="AF9" s="15">
         <v>0</v>
       </c>
-      <c r="AG9" s="15"/>
+      <c r="AG9" s="15">
+        <v>0</v>
+      </c>
       <c r="AH9" s="15"/>
       <c r="AI9" s="15"/>
       <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
     </row>
-    <row r="10" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:38" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
         <v>73</v>
       </c>
@@ -2061,7 +2094,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="15">
         <v>0</v>
@@ -2111,12 +2144,15 @@
       <c r="AF10" s="15">
         <v>0</v>
       </c>
-      <c r="AG10" s="15"/>
+      <c r="AG10" s="15">
+        <v>0</v>
+      </c>
       <c r="AH10" s="15"/>
       <c r="AI10" s="15"/>
       <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
     </row>
-    <row r="11" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:38" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
         <v>76</v>
       </c>
@@ -2141,7 +2177,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
       <c r="P11" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="15">
         <v>0</v>
@@ -2191,12 +2227,15 @@
       <c r="AF11" s="15">
         <v>0</v>
       </c>
-      <c r="AG11" s="15"/>
+      <c r="AG11" s="15">
+        <v>0</v>
+      </c>
       <c r="AH11" s="15"/>
       <c r="AI11" s="15"/>
       <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
     </row>
-    <row r="12" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
         <v>78</v>
       </c>
@@ -2221,7 +2260,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="15">
         <v>0</v>
@@ -2271,12 +2310,15 @@
       <c r="AF12" s="15">
         <v>0</v>
       </c>
-      <c r="AG12" s="15"/>
+      <c r="AG12" s="15">
+        <v>0</v>
+      </c>
       <c r="AH12" s="15"/>
       <c r="AI12" s="15"/>
       <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
     </row>
-    <row r="13" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
         <v>82</v>
       </c>
@@ -2301,7 +2343,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="15">
         <v>0</v>
@@ -2351,12 +2393,15 @@
       <c r="AF13" s="15">
         <v>0</v>
       </c>
-      <c r="AG13" s="15"/>
+      <c r="AG13" s="15">
+        <v>0</v>
+      </c>
       <c r="AH13" s="15"/>
       <c r="AI13" s="15"/>
       <c r="AJ13" s="15"/>
+      <c r="AK13" s="15"/>
     </row>
-    <row r="14" spans="1:37" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:38" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
         <v>115</v>
       </c>
@@ -2381,7 +2426,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
       <c r="P14" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="15">
         <v>0</v>
@@ -2431,12 +2476,15 @@
       <c r="AF14" s="15">
         <v>0</v>
       </c>
-      <c r="AG14" s="15"/>
+      <c r="AG14" s="15">
+        <v>0</v>
+      </c>
       <c r="AH14" s="15"/>
       <c r="AI14" s="15"/>
       <c r="AJ14" s="15"/>
+      <c r="AK14" s="15"/>
     </row>
-    <row r="15" spans="1:37" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:38" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
         <v>80</v>
       </c>
@@ -2461,7 +2509,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
       <c r="P15" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="15">
         <v>0</v>
@@ -2511,12 +2559,15 @@
       <c r="AF15" s="15">
         <v>0</v>
       </c>
-      <c r="AG15" s="15"/>
+      <c r="AG15" s="15">
+        <v>0</v>
+      </c>
       <c r="AH15" s="15"/>
       <c r="AI15" s="15"/>
       <c r="AJ15" s="15"/>
+      <c r="AK15" s="15"/>
     </row>
-    <row r="16" spans="1:37" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:38" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
         <v>84</v>
       </c>
@@ -2549,7 +2600,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="15">
         <v>0</v>
@@ -2599,12 +2650,15 @@
       <c r="AF16" s="15">
         <v>0</v>
       </c>
-      <c r="AG16" s="15"/>
+      <c r="AG16" s="15">
+        <v>0</v>
+      </c>
       <c r="AH16" s="15"/>
       <c r="AI16" s="15"/>
       <c r="AJ16" s="15"/>
+      <c r="AK16" s="15"/>
     </row>
-    <row r="17" spans="1:36" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:37" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
         <v>116</v>
       </c>
@@ -2637,7 +2691,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
       <c r="P17" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="15">
         <v>0</v>
@@ -2687,12 +2741,15 @@
       <c r="AF17" s="15">
         <v>0</v>
       </c>
-      <c r="AG17" s="15"/>
+      <c r="AG17" s="15">
+        <v>0</v>
+      </c>
       <c r="AH17" s="15"/>
       <c r="AI17" s="15"/>
       <c r="AJ17" s="15"/>
+      <c r="AK17" s="15"/>
     </row>
-    <row r="18" spans="1:36" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
         <v>92</v>
       </c>
@@ -2719,7 +2776,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="15">
         <v>1</v>
@@ -2769,12 +2826,15 @@
       <c r="AF18" s="15">
         <v>0</v>
       </c>
-      <c r="AG18" s="15"/>
+      <c r="AG18" s="15">
+        <v>0</v>
+      </c>
       <c r="AH18" s="15"/>
       <c r="AI18" s="15"/>
       <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
     </row>
-    <row r="19" spans="1:36" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
         <v>89</v>
       </c>
@@ -2801,7 +2861,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
       <c r="P19" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="15">
         <v>1</v>
@@ -2851,12 +2911,15 @@
       <c r="AF19" s="15">
         <v>0</v>
       </c>
-      <c r="AG19" s="15"/>
+      <c r="AG19" s="15">
+        <v>0</v>
+      </c>
       <c r="AH19" s="15"/>
       <c r="AI19" s="15"/>
       <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
     </row>
-    <row r="20" spans="1:36" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:37" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>65</v>
       </c>
@@ -2881,7 +2944,7 @@
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="16">
         <v>0</v>
@@ -2931,12 +2994,15 @@
       <c r="AF20" s="16">
         <v>1</v>
       </c>
-      <c r="AG20" s="16"/>
+      <c r="AG20" s="16">
+        <v>0</v>
+      </c>
       <c r="AH20" s="16"/>
       <c r="AI20" s="16"/>
       <c r="AJ20" s="16"/>
+      <c r="AK20" s="16"/>
     </row>
-    <row r="21" spans="1:36" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:37" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
         <v>95</v>
       </c>
@@ -2963,7 +3029,7 @@
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
       <c r="P21" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="16">
         <v>0</v>
@@ -3013,12 +3079,15 @@
       <c r="AF21" s="16">
         <v>1</v>
       </c>
-      <c r="AG21" s="16"/>
+      <c r="AG21" s="16">
+        <v>0</v>
+      </c>
       <c r="AH21" s="16"/>
       <c r="AI21" s="16"/>
       <c r="AJ21" s="16"/>
+      <c r="AK21" s="16"/>
     </row>
-    <row r="22" spans="1:36" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:37" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
         <v>98</v>
       </c>
@@ -3043,7 +3112,7 @@
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="16">
         <v>0</v>
@@ -3093,12 +3162,15 @@
       <c r="AF22" s="16">
         <v>1</v>
       </c>
-      <c r="AG22" s="16"/>
+      <c r="AG22" s="16">
+        <v>0</v>
+      </c>
       <c r="AH22" s="16"/>
       <c r="AI22" s="16"/>
       <c r="AJ22" s="16"/>
+      <c r="AK22" s="16"/>
     </row>
-    <row r="23" spans="1:36" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:37" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
         <v>100</v>
       </c>
@@ -3123,7 +3195,7 @@
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
       <c r="P23" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="16">
         <v>0</v>
@@ -3173,12 +3245,15 @@
       <c r="AF23" s="16">
         <v>1</v>
       </c>
-      <c r="AG23" s="16"/>
+      <c r="AG23" s="16">
+        <v>0</v>
+      </c>
       <c r="AH23" s="16"/>
       <c r="AI23" s="16"/>
       <c r="AJ23" s="16"/>
+      <c r="AK23" s="16"/>
     </row>
-    <row r="24" spans="1:36" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:37" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
         <v>101</v>
       </c>
@@ -3203,7 +3278,7 @@
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
       <c r="P24" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="16">
         <v>0</v>
@@ -3253,12 +3328,15 @@
       <c r="AF24" s="16">
         <v>1</v>
       </c>
-      <c r="AG24" s="16"/>
+      <c r="AG24" s="16">
+        <v>0</v>
+      </c>
       <c r="AH24" s="16"/>
       <c r="AI24" s="16"/>
       <c r="AJ24" s="16"/>
+      <c r="AK24" s="16"/>
     </row>
-    <row r="25" spans="1:36" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:37" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
         <v>102</v>
       </c>
@@ -3283,7 +3361,7 @@
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
       <c r="P25" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="16">
         <v>0</v>
@@ -3333,12 +3411,15 @@
       <c r="AF25" s="16">
         <v>1</v>
       </c>
-      <c r="AG25" s="16"/>
+      <c r="AG25" s="16">
+        <v>0</v>
+      </c>
       <c r="AH25" s="16"/>
       <c r="AI25" s="16"/>
       <c r="AJ25" s="16"/>
+      <c r="AK25" s="16"/>
     </row>
-    <row r="26" spans="1:36" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:37" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19" t="s">
         <v>121</v>
       </c>
@@ -3363,7 +3444,7 @@
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
       <c r="P26" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="19">
         <v>0</v>
@@ -3413,12 +3494,15 @@
       <c r="AF26" s="19">
         <v>0</v>
       </c>
-      <c r="AG26" s="19"/>
+      <c r="AG26" s="19">
+        <v>0</v>
+      </c>
       <c r="AH26" s="19"/>
       <c r="AI26" s="19"/>
       <c r="AJ26" s="19"/>
+      <c r="AK26" s="19"/>
     </row>
-    <row r="27" spans="1:36" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:37" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="20" t="s">
         <v>105</v>
       </c>
@@ -3444,7 +3528,7 @@
         <v>88</v>
       </c>
       <c r="P27" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="20">
         <v>0</v>
@@ -3494,8 +3578,11 @@
       <c r="AF27" s="20">
         <v>0</v>
       </c>
+      <c r="AG27" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:36" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:37" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="20" t="s">
         <v>124</v>
       </c>
@@ -3509,7 +3596,7 @@
         <v>75</v>
       </c>
       <c r="P28" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="20">
         <v>0</v>
@@ -3559,8 +3646,11 @@
       <c r="AF28" s="20">
         <v>0</v>
       </c>
+      <c r="AG28" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:36" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:37" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="20" t="s">
         <v>125</v>
       </c>
@@ -3574,7 +3664,7 @@
         <v>75</v>
       </c>
       <c r="P29" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="20">
         <v>0</v>
@@ -3624,8 +3714,11 @@
       <c r="AF29" s="20">
         <v>0</v>
       </c>
+      <c r="AG29" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:36" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:37" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19" t="s">
         <v>121</v>
       </c>
@@ -3650,7 +3743,7 @@
       <c r="N30" s="19"/>
       <c r="O30" s="19"/>
       <c r="P30" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="19">
         <v>0</v>
@@ -3700,12 +3793,15 @@
       <c r="AF30" s="19">
         <v>0</v>
       </c>
-      <c r="AG30" s="19"/>
+      <c r="AG30" s="19">
+        <v>0</v>
+      </c>
       <c r="AH30" s="19"/>
       <c r="AI30" s="19"/>
       <c r="AJ30" s="19"/>
+      <c r="AK30" s="19"/>
     </row>
-    <row r="31" spans="1:36" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:37" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="20" t="s">
         <v>126</v>
       </c>
@@ -3731,7 +3827,7 @@
         <v>88</v>
       </c>
       <c r="P31" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="20">
         <v>0</v>
@@ -3781,8 +3877,11 @@
       <c r="AF31" s="20">
         <v>0</v>
       </c>
+      <c r="AG31" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:36" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:37" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="20" t="s">
         <v>127</v>
       </c>
@@ -3808,7 +3907,7 @@
         <v>88</v>
       </c>
       <c r="P32" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="20">
         <v>0</v>
@@ -3858,8 +3957,11 @@
       <c r="AF32" s="20">
         <v>0</v>
       </c>
+      <c r="AG32" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:37" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:38" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="18" t="s">
         <v>128</v>
       </c>
@@ -3884,7 +3986,7 @@
       <c r="N33" s="18"/>
       <c r="O33" s="18"/>
       <c r="P33" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="18">
         <v>0</v>
@@ -3934,12 +4036,15 @@
       <c r="AF33" s="18">
         <v>0</v>
       </c>
-      <c r="AG33" s="18"/>
+      <c r="AG33" s="18">
+        <v>0</v>
+      </c>
       <c r="AH33" s="18"/>
       <c r="AI33" s="18"/>
       <c r="AJ33" s="18"/>
+      <c r="AK33" s="18"/>
     </row>
-    <row r="34" spans="1:37" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:38" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
         <v>129</v>
       </c>
@@ -3964,7 +4069,7 @@
       <c r="N34" s="18"/>
       <c r="O34" s="18"/>
       <c r="P34" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="18">
         <v>0</v>
@@ -4014,12 +4119,15 @@
       <c r="AF34" s="18">
         <v>0</v>
       </c>
-      <c r="AG34" s="18"/>
+      <c r="AG34" s="18">
+        <v>0</v>
+      </c>
       <c r="AH34" s="18"/>
       <c r="AI34" s="18"/>
       <c r="AJ34" s="18"/>
+      <c r="AK34" s="18"/>
     </row>
-    <row r="35" spans="1:37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17" t="s">
         <v>60</v>
       </c>
@@ -4044,7 +4152,7 @@
       <c r="N35" s="17"/>
       <c r="O35" s="17"/>
       <c r="P35" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="17">
         <v>0</v>
@@ -4094,13 +4202,16 @@
       <c r="AF35" s="17">
         <v>0</v>
       </c>
-      <c r="AG35" s="17"/>
+      <c r="AG35" s="17">
+        <v>0</v>
+      </c>
       <c r="AH35" s="17"/>
       <c r="AI35" s="17"/>
       <c r="AJ35" s="17"/>
-      <c r="AK35" s="8"/>
+      <c r="AK35" s="17"/>
+      <c r="AL35" s="8"/>
     </row>
-    <row r="36" spans="1:37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="17" t="s">
         <v>107</v>
       </c>
@@ -4125,7 +4236,7 @@
       <c r="N36" s="17"/>
       <c r="O36" s="17"/>
       <c r="P36" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="17">
         <v>0</v>
@@ -4175,13 +4286,16 @@
       <c r="AF36" s="17">
         <v>0</v>
       </c>
-      <c r="AG36" s="17"/>
+      <c r="AG36" s="17">
+        <v>0</v>
+      </c>
       <c r="AH36" s="17"/>
       <c r="AI36" s="17"/>
       <c r="AJ36" s="17"/>
-      <c r="AK36" s="8"/>
+      <c r="AK36" s="17"/>
+      <c r="AL36" s="8"/>
     </row>
-    <row r="37" spans="1:37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="17" t="s">
         <v>130</v>
       </c>
@@ -4206,7 +4320,7 @@
       <c r="N37" s="17"/>
       <c r="O37" s="17"/>
       <c r="P37" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="17">
         <v>0</v>
@@ -4256,13 +4370,16 @@
       <c r="AF37" s="17">
         <v>0</v>
       </c>
-      <c r="AG37" s="17"/>
+      <c r="AG37" s="17">
+        <v>0</v>
+      </c>
       <c r="AH37" s="17"/>
       <c r="AI37" s="17"/>
       <c r="AJ37" s="17"/>
-      <c r="AK37" s="8"/>
+      <c r="AK37" s="17"/>
+      <c r="AL37" s="8"/>
     </row>
-    <row r="38" spans="1:37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="17" t="s">
         <v>131</v>
       </c>
@@ -4287,7 +4404,7 @@
       <c r="N38" s="17"/>
       <c r="O38" s="17"/>
       <c r="P38" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="17">
         <v>0</v>
@@ -4337,11 +4454,14 @@
       <c r="AF38" s="17">
         <v>0</v>
       </c>
-      <c r="AG38" s="17"/>
+      <c r="AG38" s="17">
+        <v>0</v>
+      </c>
       <c r="AH38" s="17"/>
       <c r="AI38" s="17"/>
       <c r="AJ38" s="17"/>
-      <c r="AK38" s="8"/>
+      <c r="AK38" s="17"/>
+      <c r="AL38" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Resource/excel/W-玩家-框架属性-(框架维护,请勿修改).xlsx
+++ b/Resource/excel/W-玩家-框架属性-(框架维护,请勿修改).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1220,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AF25" sqref="AF25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2992,7 +2992,7 @@
         <v>1</v>
       </c>
       <c r="AF20" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="16">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="AF21" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="16">
         <v>0</v>
@@ -3160,7 +3160,7 @@
         <v>1</v>
       </c>
       <c r="AF22" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="16">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="AF23" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="16">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>1</v>
       </c>
       <c r="AF24" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="16">
         <v>0</v>
@@ -3409,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="AF25" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="16">
         <v>0</v>

--- a/Resource/excel/W-玩家-框架属性-(框架维护,请勿修改).xlsx
+++ b/Resource/excel/W-玩家-框架属性-(框架维护,请勿修改).xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="142">
   <si>
     <t>LuaFile(string)</t>
   </si>
@@ -405,9 +405,6 @@
   </si>
   <si>
     <t>condition</t>
-  </si>
-  <si>
-    <t>时间</t>
   </si>
   <si>
     <t>逻辑名称</t>
@@ -556,12 +553,6 @@
     <t>是否重置</t>
   </si>
   <si>
-    <t>保存上一次的时间</t>
-  </si>
-  <si>
-    <t>lasttime</t>
-  </si>
-  <si>
     <t>基础属性</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -599,6 +590,14 @@
   </si>
   <si>
     <t>是否屏蔽创建</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一次时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -781,7 +780,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,6 +842,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1218,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL38"/>
+  <dimension ref="A1:AL37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AF25" sqref="AF25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1262,7 +1267,7 @@
     <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -1309,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>3</v>
@@ -1324,7 +1329,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>7</v>
@@ -1339,16 +1344,16 @@
         <v>10</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R2" s="10" t="s">
         <v>12</v>
@@ -1381,7 +1386,7 @@
         <v>21</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AC2" s="10" t="s">
         <v>22</v>
@@ -1396,7 +1401,7 @@
         <v>25</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH2" s="10" t="s">
         <v>26</v>
@@ -1535,13 +1540,13 @@
         <v>28</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>30</v>
@@ -1571,13 +1576,13 @@
         <v>38</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O4" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="Q4" s="13" t="s">
         <v>39</v>
@@ -1613,13 +1618,13 @@
         <v>49</v>
       </c>
       <c r="AB4" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AC4" s="13" t="s">
         <v>50</v>
       </c>
       <c r="AD4" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AE4" s="13" t="s">
         <v>51</v>
@@ -1628,7 +1633,7 @@
         <v>52</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AH4" s="13" t="s">
         <v>0</v>
@@ -2326,7 +2331,7 @@
         <v>63</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15" t="s">
@@ -2403,7 +2408,7 @@
     </row>
     <row r="14" spans="1:38" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>63</v>
@@ -2660,7 +2665,7 @@
     </row>
     <row r="17" spans="1:37" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>63</v>
@@ -2673,7 +2678,7 @@
         <v>86</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>60</v>
@@ -2924,7 +2929,7 @@
         <v>65</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>60</v>
@@ -3007,7 +3012,7 @@
         <v>95</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>96</v>
@@ -3092,7 +3097,7 @@
         <v>98</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>99</v>
@@ -3175,7 +3180,7 @@
         <v>100</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>94</v>
@@ -3258,14 +3263,14 @@
         <v>101</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>118</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>119</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -3341,14 +3346,14 @@
         <v>102</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>103</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -3421,10 +3426,10 @@
     </row>
     <row r="26" spans="1:37" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>121</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>122</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>93</v>
@@ -3507,7 +3512,7 @@
         <v>105</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>106</v>
@@ -3516,7 +3521,7 @@
         <v>86</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G27" s="20" t="s">
         <v>60</v>
@@ -3584,10 +3589,10 @@
     </row>
     <row r="28" spans="1:37" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>60</v>
@@ -3652,10 +3657,10 @@
     </row>
     <row r="29" spans="1:37" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>88</v>
@@ -3720,10 +3725,10 @@
     </row>
     <row r="30" spans="1:37" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>93</v>
@@ -3803,10 +3808,10 @@
     </row>
     <row r="31" spans="1:37" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>106</v>
@@ -3815,7 +3820,7 @@
         <v>86</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>60</v>
@@ -3883,10 +3888,10 @@
     </row>
     <row r="32" spans="1:37" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>64</v>
@@ -3963,7 +3968,7 @@
     </row>
     <row r="33" spans="1:38" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>87</v>
@@ -4046,7 +4051,7 @@
     </row>
     <row r="34" spans="1:38" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>87</v>
@@ -4132,7 +4137,7 @@
         <v>60</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>60</v>
@@ -4212,11 +4217,11 @@
       <c r="AL35" s="8"/>
     </row>
     <row r="36" spans="1:38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="17" t="s">
-        <v>107</v>
+      <c r="A36" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>88</v>
@@ -4297,17 +4302,17 @@
     </row>
     <row r="37" spans="1:38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>94</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="16" t="s">
-        <v>75</v>
+      <c r="E37" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
@@ -4379,90 +4384,6 @@
       <c r="AK37" s="17"/>
       <c r="AL37" s="8"/>
     </row>
-    <row r="38" spans="1:38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="17">
-        <v>0</v>
-      </c>
-      <c r="R38" s="17">
-        <v>0</v>
-      </c>
-      <c r="S38" s="17">
-        <v>0</v>
-      </c>
-      <c r="T38" s="17">
-        <v>0</v>
-      </c>
-      <c r="U38" s="17">
-        <v>0</v>
-      </c>
-      <c r="V38" s="17">
-        <v>0</v>
-      </c>
-      <c r="W38" s="17">
-        <v>0</v>
-      </c>
-      <c r="X38" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="17"/>
-      <c r="AI38" s="17"/>
-      <c r="AJ38" s="17"/>
-      <c r="AK38" s="17"/>
-      <c r="AL38" s="8"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resource/excel/W-玩家-框架属性-(框架维护,请勿修改).xlsx
+++ b/Resource/excel/W-玩家-框架属性-(框架维护,请勿修改).xlsx
@@ -422,9 +422,6 @@
     <t>LogicName(string)</t>
   </si>
   <si>
-    <t>Group(int)</t>
-  </si>
-  <si>
     <t>logintime</t>
   </si>
   <si>
@@ -598,6 +595,32 @@
   </si>
   <si>
     <t>uint32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(int)</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1225,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1267,7 +1290,7 @@
     <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -1344,13 +1367,13 @@
         <v>10</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>109</v>
@@ -1386,7 +1409,7 @@
         <v>21</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AC2" s="10" t="s">
         <v>22</v>
@@ -1401,7 +1424,7 @@
         <v>25</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH2" s="10" t="s">
         <v>26</v>
@@ -1576,13 +1599,13 @@
         <v>38</v>
       </c>
       <c r="N4" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="O4" s="13" t="s">
-        <v>135</v>
-      </c>
       <c r="P4" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q4" s="13" t="s">
         <v>39</v>
@@ -1618,13 +1641,13 @@
         <v>49</v>
       </c>
       <c r="AB4" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AD4" s="13" t="s">
-        <v>112</v>
+      <c r="AD4" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="AE4" s="13" t="s">
         <v>51</v>
@@ -1633,7 +1656,7 @@
         <v>52</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AH4" s="13" t="s">
         <v>0</v>
@@ -2331,7 +2354,7 @@
         <v>63</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15" t="s">
@@ -2408,7 +2431,7 @@
     </row>
     <row r="14" spans="1:38" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>63</v>
@@ -2665,7 +2688,7 @@
     </row>
     <row r="17" spans="1:37" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>63</v>
@@ -2678,7 +2701,7 @@
         <v>86</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>60</v>
@@ -2929,7 +2952,7 @@
         <v>65</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>60</v>
@@ -3012,7 +3035,7 @@
         <v>95</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>96</v>
@@ -3097,7 +3120,7 @@
         <v>98</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>99</v>
@@ -3180,7 +3203,7 @@
         <v>100</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>94</v>
@@ -3263,14 +3286,14 @@
         <v>101</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>118</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -3346,14 +3369,14 @@
         <v>102</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>103</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -3426,10 +3449,10 @@
     </row>
     <row r="26" spans="1:37" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>121</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>93</v>
@@ -3512,7 +3535,7 @@
         <v>105</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>106</v>
@@ -3521,7 +3544,7 @@
         <v>86</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G27" s="20" t="s">
         <v>60</v>
@@ -3589,10 +3612,10 @@
     </row>
     <row r="28" spans="1:37" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>60</v>
@@ -3657,10 +3680,10 @@
     </row>
     <row r="29" spans="1:37" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>88</v>
@@ -3725,10 +3748,10 @@
     </row>
     <row r="30" spans="1:37" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>93</v>
@@ -3808,10 +3831,10 @@
     </row>
     <row r="31" spans="1:37" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>106</v>
@@ -3820,7 +3843,7 @@
         <v>86</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>60</v>
@@ -3888,10 +3911,10 @@
     </row>
     <row r="32" spans="1:37" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>64</v>
@@ -3968,7 +3991,7 @@
     </row>
     <row r="33" spans="1:38" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>87</v>
@@ -4051,7 +4074,7 @@
     </row>
     <row r="34" spans="1:38" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>87</v>
@@ -4137,7 +4160,7 @@
         <v>60</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>60</v>
@@ -4218,10 +4241,10 @@
     </row>
     <row r="36" spans="1:38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>88</v>
@@ -4302,17 +4325,17 @@
     </row>
     <row r="37" spans="1:38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>94</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>

--- a/Resource/excel/W-玩家-框架属性-(框架维护,请勿修改).xlsx
+++ b/Resource/excel/W-玩家-框架属性-(框架维护,请勿修改).xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="144">
   <si>
     <t>LuaFile(string)</t>
   </si>
@@ -621,6 +621,14 @@
       </rPr>
       <t>(int)</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求同步客户端</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request(int)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1246,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL37"/>
+  <dimension ref="A1:AM37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1271,23 +1279,23 @@
     <col min="20" max="20" width="17.125" style="9" customWidth="1"/>
     <col min="21" max="21" width="11" style="9" customWidth="1"/>
     <col min="22" max="22" width="12.875" style="9" customWidth="1"/>
-    <col min="23" max="23" width="15" style="9" customWidth="1"/>
-    <col min="24" max="24" width="11" style="9" customWidth="1"/>
-    <col min="25" max="25" width="13.75" style="9" customWidth="1"/>
-    <col min="26" max="27" width="17.125" style="9" customWidth="1"/>
-    <col min="28" max="28" width="12.625" style="9" customWidth="1"/>
-    <col min="29" max="29" width="14.875" style="9" customWidth="1"/>
-    <col min="30" max="31" width="11.5" style="9" customWidth="1"/>
-    <col min="32" max="33" width="10.875" style="9" customWidth="1"/>
-    <col min="34" max="34" width="9.375" style="9" customWidth="1"/>
-    <col min="35" max="35" width="17.125" style="9" customWidth="1"/>
-    <col min="36" max="36" width="21.5" style="9" customWidth="1"/>
-    <col min="37" max="37" width="24.875" style="9" customWidth="1"/>
-    <col min="38" max="38" width="28.75" style="9" customWidth="1"/>
-    <col min="39" max="16384" width="9" style="9"/>
+    <col min="23" max="24" width="15" style="9" customWidth="1"/>
+    <col min="25" max="25" width="11" style="9" customWidth="1"/>
+    <col min="26" max="26" width="13.75" style="9" customWidth="1"/>
+    <col min="27" max="28" width="17.125" style="9" customWidth="1"/>
+    <col min="29" max="29" width="12.625" style="9" customWidth="1"/>
+    <col min="30" max="30" width="14.875" style="9" customWidth="1"/>
+    <col min="31" max="32" width="11.5" style="9" customWidth="1"/>
+    <col min="33" max="34" width="10.875" style="9" customWidth="1"/>
+    <col min="35" max="35" width="9.375" style="9" customWidth="1"/>
+    <col min="36" max="36" width="17.125" style="9" customWidth="1"/>
+    <col min="37" max="37" width="21.5" style="9" customWidth="1"/>
+    <col min="38" max="38" width="24.875" style="9" customWidth="1"/>
+    <col min="39" max="39" width="28.75" style="9" customWidth="1"/>
+    <col min="40" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>131</v>
@@ -1327,8 +1335,9 @@
       <c r="AI1" s="11"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
     </row>
-    <row r="2" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>1</v>
@@ -1396,53 +1405,56 @@
       <c r="W2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>0</v>
       </c>
@@ -1516,7 +1528,7 @@
         <v>3</v>
       </c>
       <c r="Y3" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z3" s="12">
         <v>1</v>
@@ -1525,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="AB3" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="12">
         <v>3</v>
@@ -1554,11 +1566,14 @@
       <c r="AK3" s="12">
         <v>3</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AL3" s="12">
         <v>3</v>
       </c>
+      <c r="AM3" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>28</v>
       </c>
@@ -1628,53 +1643,56 @@
       <c r="W4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="13" t="s">
+      <c r="X4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="13" t="s">
+      <c r="Z4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="13" t="s">
+      <c r="AA4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AA4" s="13" t="s">
+      <c r="AB4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AB4" s="13" t="s">
+      <c r="AC4" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="AC4" s="13" t="s">
+      <c r="AD4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AE4" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AE4" s="13" t="s">
+      <c r="AF4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="13" t="s">
+      <c r="AG4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AH4" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="AH4" s="13" t="s">
-        <v>0</v>
-      </c>
       <c r="AI4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AJ4" s="13" t="s">
+      <c r="AK4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AK4" s="13" t="s">
+      <c r="AL4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AL4" s="4" t="s">
+      <c r="AM4" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>61</v>
       </c>
@@ -1727,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="14">
         <v>1</v>
@@ -1754,14 +1772,17 @@
         <v>1</v>
       </c>
       <c r="AG5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="AH5" s="14">
+        <v>0</v>
+      </c>
       <c r="AI5" s="14"/>
       <c r="AJ5" s="14"/>
       <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
     </row>
-    <row r="6" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
         <v>65</v>
       </c>
@@ -1810,10 +1831,10 @@
         <v>0</v>
       </c>
       <c r="X6" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="15">
         <v>0</v>
@@ -1839,12 +1860,15 @@
       <c r="AG6" s="15">
         <v>0</v>
       </c>
-      <c r="AH6" s="15"/>
+      <c r="AH6" s="15">
+        <v>0</v>
+      </c>
       <c r="AI6" s="15"/>
       <c r="AJ6" s="15"/>
       <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
     </row>
-    <row r="7" spans="1:38" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:39" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
         <v>67</v>
       </c>
@@ -1897,16 +1921,16 @@
         <v>0</v>
       </c>
       <c r="X7" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="15">
         <v>0</v>
       </c>
       <c r="AA7" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="15">
         <v>1</v>
@@ -1924,14 +1948,17 @@
         <v>1</v>
       </c>
       <c r="AG7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="AH7" s="15">
+        <v>0</v>
+      </c>
       <c r="AI7" s="15"/>
       <c r="AJ7" s="15"/>
       <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
     </row>
-    <row r="8" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
         <v>68</v>
       </c>
@@ -2009,12 +2036,15 @@
       <c r="AG8" s="15">
         <v>0</v>
       </c>
-      <c r="AH8" s="15"/>
+      <c r="AH8" s="15">
+        <v>0</v>
+      </c>
       <c r="AI8" s="15"/>
       <c r="AJ8" s="15"/>
       <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
     </row>
-    <row r="9" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
         <v>71</v>
       </c>
@@ -2092,12 +2122,15 @@
       <c r="AG9" s="15">
         <v>0</v>
       </c>
-      <c r="AH9" s="15"/>
+      <c r="AH9" s="15">
+        <v>0</v>
+      </c>
       <c r="AI9" s="15"/>
       <c r="AJ9" s="15"/>
       <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
     </row>
-    <row r="10" spans="1:38" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:39" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
         <v>73</v>
       </c>
@@ -2175,12 +2208,15 @@
       <c r="AG10" s="15">
         <v>0</v>
       </c>
-      <c r="AH10" s="15"/>
+      <c r="AH10" s="15">
+        <v>0</v>
+      </c>
       <c r="AI10" s="15"/>
       <c r="AJ10" s="15"/>
       <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
     </row>
-    <row r="11" spans="1:38" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:39" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
         <v>76</v>
       </c>
@@ -2258,12 +2294,15 @@
       <c r="AG11" s="15">
         <v>0</v>
       </c>
-      <c r="AH11" s="15"/>
+      <c r="AH11" s="15">
+        <v>0</v>
+      </c>
       <c r="AI11" s="15"/>
       <c r="AJ11" s="15"/>
       <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
     </row>
-    <row r="12" spans="1:38" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:39" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
         <v>78</v>
       </c>
@@ -2341,12 +2380,15 @@
       <c r="AG12" s="15">
         <v>0</v>
       </c>
-      <c r="AH12" s="15"/>
+      <c r="AH12" s="15">
+        <v>0</v>
+      </c>
       <c r="AI12" s="15"/>
       <c r="AJ12" s="15"/>
       <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
     </row>
-    <row r="13" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
         <v>82</v>
       </c>
@@ -2424,12 +2466,15 @@
       <c r="AG13" s="15">
         <v>0</v>
       </c>
-      <c r="AH13" s="15"/>
+      <c r="AH13" s="15">
+        <v>0</v>
+      </c>
       <c r="AI13" s="15"/>
       <c r="AJ13" s="15"/>
       <c r="AK13" s="15"/>
+      <c r="AL13" s="15"/>
     </row>
-    <row r="14" spans="1:38" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:39" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
         <v>113</v>
       </c>
@@ -2507,12 +2552,15 @@
       <c r="AG14" s="15">
         <v>0</v>
       </c>
-      <c r="AH14" s="15"/>
+      <c r="AH14" s="15">
+        <v>0</v>
+      </c>
       <c r="AI14" s="15"/>
       <c r="AJ14" s="15"/>
       <c r="AK14" s="15"/>
+      <c r="AL14" s="15"/>
     </row>
-    <row r="15" spans="1:38" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:39" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
         <v>80</v>
       </c>
@@ -2590,12 +2638,15 @@
       <c r="AG15" s="15">
         <v>0</v>
       </c>
-      <c r="AH15" s="15"/>
+      <c r="AH15" s="15">
+        <v>0</v>
+      </c>
       <c r="AI15" s="15"/>
       <c r="AJ15" s="15"/>
       <c r="AK15" s="15"/>
+      <c r="AL15" s="15"/>
     </row>
-    <row r="16" spans="1:38" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:39" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
         <v>84</v>
       </c>
@@ -2681,12 +2732,15 @@
       <c r="AG16" s="15">
         <v>0</v>
       </c>
-      <c r="AH16" s="15"/>
+      <c r="AH16" s="15">
+        <v>0</v>
+      </c>
       <c r="AI16" s="15"/>
       <c r="AJ16" s="15"/>
       <c r="AK16" s="15"/>
+      <c r="AL16" s="15"/>
     </row>
-    <row r="17" spans="1:37" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:38" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
         <v>114</v>
       </c>
@@ -2772,12 +2826,15 @@
       <c r="AG17" s="15">
         <v>0</v>
       </c>
-      <c r="AH17" s="15"/>
+      <c r="AH17" s="15">
+        <v>0</v>
+      </c>
       <c r="AI17" s="15"/>
       <c r="AJ17" s="15"/>
       <c r="AK17" s="15"/>
+      <c r="AL17" s="15"/>
     </row>
-    <row r="18" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:38" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
         <v>92</v>
       </c>
@@ -2837,10 +2894,10 @@
         <v>0</v>
       </c>
       <c r="AA18" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="15">
         <v>0</v>
@@ -2857,12 +2914,15 @@
       <c r="AG18" s="15">
         <v>0</v>
       </c>
-      <c r="AH18" s="15"/>
+      <c r="AH18" s="15">
+        <v>0</v>
+      </c>
       <c r="AI18" s="15"/>
       <c r="AJ18" s="15"/>
       <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
     </row>
-    <row r="19" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:38" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
         <v>89</v>
       </c>
@@ -2922,10 +2982,10 @@
         <v>0</v>
       </c>
       <c r="AA19" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19" s="15">
         <v>0</v>
@@ -2942,12 +3002,15 @@
       <c r="AG19" s="15">
         <v>0</v>
       </c>
-      <c r="AH19" s="15"/>
+      <c r="AH19" s="15">
+        <v>0</v>
+      </c>
       <c r="AI19" s="15"/>
       <c r="AJ19" s="15"/>
       <c r="AK19" s="15"/>
+      <c r="AL19" s="15"/>
     </row>
-    <row r="20" spans="1:37" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:38" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>65</v>
       </c>
@@ -2996,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="16">
         <v>1</v>
@@ -3020,17 +3083,20 @@
         <v>1</v>
       </c>
       <c r="AF20" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20" s="16">
         <v>0</v>
       </c>
-      <c r="AH20" s="16"/>
+      <c r="AH20" s="16">
+        <v>0</v>
+      </c>
       <c r="AI20" s="16"/>
       <c r="AJ20" s="16"/>
       <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
     </row>
-    <row r="21" spans="1:37" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:38" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
         <v>95</v>
       </c>
@@ -3081,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="16">
         <v>1</v>
@@ -3105,17 +3171,20 @@
         <v>1</v>
       </c>
       <c r="AF21" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21" s="16">
         <v>0</v>
       </c>
-      <c r="AH21" s="16"/>
+      <c r="AH21" s="16">
+        <v>0</v>
+      </c>
       <c r="AI21" s="16"/>
       <c r="AJ21" s="16"/>
       <c r="AK21" s="16"/>
+      <c r="AL21" s="16"/>
     </row>
-    <row r="22" spans="1:37" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:38" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
         <v>98</v>
       </c>
@@ -3164,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="16">
         <v>1</v>
@@ -3188,17 +3257,20 @@
         <v>1</v>
       </c>
       <c r="AF22" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG22" s="16">
         <v>0</v>
       </c>
-      <c r="AH22" s="16"/>
+      <c r="AH22" s="16">
+        <v>0</v>
+      </c>
       <c r="AI22" s="16"/>
       <c r="AJ22" s="16"/>
       <c r="AK22" s="16"/>
+      <c r="AL22" s="16"/>
     </row>
-    <row r="23" spans="1:37" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:38" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
         <v>100</v>
       </c>
@@ -3247,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="16">
         <v>1</v>
@@ -3271,17 +3343,20 @@
         <v>1</v>
       </c>
       <c r="AF23" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23" s="16">
         <v>0</v>
       </c>
-      <c r="AH23" s="16"/>
+      <c r="AH23" s="16">
+        <v>0</v>
+      </c>
       <c r="AI23" s="16"/>
       <c r="AJ23" s="16"/>
       <c r="AK23" s="16"/>
+      <c r="AL23" s="16"/>
     </row>
-    <row r="24" spans="1:37" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:38" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
         <v>101</v>
       </c>
@@ -3330,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="X24" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="16">
         <v>1</v>
@@ -3354,17 +3429,20 @@
         <v>1</v>
       </c>
       <c r="AF24" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24" s="16">
         <v>0</v>
       </c>
-      <c r="AH24" s="16"/>
+      <c r="AH24" s="16">
+        <v>0</v>
+      </c>
       <c r="AI24" s="16"/>
       <c r="AJ24" s="16"/>
       <c r="AK24" s="16"/>
+      <c r="AL24" s="16"/>
     </row>
-    <row r="25" spans="1:37" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:38" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
         <v>102</v>
       </c>
@@ -3413,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="16">
         <v>1</v>
@@ -3437,17 +3515,20 @@
         <v>1</v>
       </c>
       <c r="AF25" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG25" s="16">
         <v>0</v>
       </c>
-      <c r="AH25" s="16"/>
+      <c r="AH25" s="16">
+        <v>0</v>
+      </c>
       <c r="AI25" s="16"/>
       <c r="AJ25" s="16"/>
       <c r="AK25" s="16"/>
+      <c r="AL25" s="16"/>
     </row>
-    <row r="26" spans="1:37" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:38" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19" t="s">
         <v>119</v>
       </c>
@@ -3525,12 +3606,15 @@
       <c r="AG26" s="19">
         <v>0</v>
       </c>
-      <c r="AH26" s="19"/>
+      <c r="AH26" s="19">
+        <v>0</v>
+      </c>
       <c r="AI26" s="19"/>
       <c r="AJ26" s="19"/>
       <c r="AK26" s="19"/>
+      <c r="AL26" s="19"/>
     </row>
-    <row r="27" spans="1:37" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:38" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="20" t="s">
         <v>105</v>
       </c>
@@ -3609,8 +3693,11 @@
       <c r="AG27" s="20">
         <v>0</v>
       </c>
+      <c r="AH27" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:37" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:38" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="20" t="s">
         <v>122</v>
       </c>
@@ -3677,8 +3764,11 @@
       <c r="AG28" s="20">
         <v>0</v>
       </c>
+      <c r="AH28" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:37" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:38" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="20" t="s">
         <v>123</v>
       </c>
@@ -3745,8 +3835,11 @@
       <c r="AG29" s="20">
         <v>0</v>
       </c>
+      <c r="AH29" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:37" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:38" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19" t="s">
         <v>119</v>
       </c>
@@ -3824,12 +3917,15 @@
       <c r="AG30" s="19">
         <v>0</v>
       </c>
-      <c r="AH30" s="19"/>
+      <c r="AH30" s="19">
+        <v>0</v>
+      </c>
       <c r="AI30" s="19"/>
       <c r="AJ30" s="19"/>
       <c r="AK30" s="19"/>
+      <c r="AL30" s="19"/>
     </row>
-    <row r="31" spans="1:37" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:38" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="20" t="s">
         <v>124</v>
       </c>
@@ -3908,8 +4004,11 @@
       <c r="AG31" s="20">
         <v>0</v>
       </c>
+      <c r="AH31" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:37" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:38" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="20" t="s">
         <v>125</v>
       </c>
@@ -3988,8 +4087,11 @@
       <c r="AG32" s="20">
         <v>0</v>
       </c>
+      <c r="AH32" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:38" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:39" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="18" t="s">
         <v>126</v>
       </c>
@@ -4041,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="18">
         <v>1</v>
@@ -4050,7 +4152,7 @@
         <v>1</v>
       </c>
       <c r="AB33" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33" s="18">
         <v>0</v>
@@ -4067,12 +4169,15 @@
       <c r="AG33" s="18">
         <v>0</v>
       </c>
-      <c r="AH33" s="18"/>
+      <c r="AH33" s="18">
+        <v>0</v>
+      </c>
       <c r="AI33" s="18"/>
       <c r="AJ33" s="18"/>
       <c r="AK33" s="18"/>
+      <c r="AL33" s="18"/>
     </row>
-    <row r="34" spans="1:38" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:39" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
         <v>127</v>
       </c>
@@ -4124,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="Y34" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="18">
         <v>1</v>
@@ -4133,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="AB34" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34" s="18">
         <v>0</v>
@@ -4150,12 +4255,15 @@
       <c r="AG34" s="18">
         <v>0</v>
       </c>
-      <c r="AH34" s="18"/>
+      <c r="AH34" s="18">
+        <v>0</v>
+      </c>
       <c r="AI34" s="18"/>
       <c r="AJ34" s="18"/>
       <c r="AK34" s="18"/>
+      <c r="AL34" s="18"/>
     </row>
-    <row r="35" spans="1:38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17" t="s">
         <v>60</v>
       </c>
@@ -4233,13 +4341,16 @@
       <c r="AG35" s="17">
         <v>0</v>
       </c>
-      <c r="AH35" s="17"/>
+      <c r="AH35" s="17">
+        <v>0</v>
+      </c>
       <c r="AI35" s="17"/>
       <c r="AJ35" s="17"/>
       <c r="AK35" s="17"/>
-      <c r="AL35" s="8"/>
+      <c r="AL35" s="17"/>
+      <c r="AM35" s="8"/>
     </row>
-    <row r="36" spans="1:38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="21" t="s">
         <v>139</v>
       </c>
@@ -4317,13 +4428,16 @@
       <c r="AG36" s="17">
         <v>0</v>
       </c>
-      <c r="AH36" s="17"/>
+      <c r="AH36" s="17">
+        <v>0</v>
+      </c>
       <c r="AI36" s="17"/>
       <c r="AJ36" s="17"/>
       <c r="AK36" s="17"/>
-      <c r="AL36" s="8"/>
+      <c r="AL36" s="17"/>
+      <c r="AM36" s="8"/>
     </row>
-    <row r="37" spans="1:38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="17" t="s">
         <v>128</v>
       </c>
@@ -4401,11 +4515,14 @@
       <c r="AG37" s="17">
         <v>0</v>
       </c>
-      <c r="AH37" s="17"/>
+      <c r="AH37" s="17">
+        <v>0</v>
+      </c>
       <c r="AI37" s="17"/>
       <c r="AJ37" s="17"/>
       <c r="AK37" s="17"/>
-      <c r="AL37" s="8"/>
+      <c r="AL37" s="17"/>
+      <c r="AM37" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Resource/excel/W-玩家-框架属性-(框架维护,请勿修改).xlsx
+++ b/Resource/excel/W-玩家-框架属性-(框架维护,请勿修改).xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="142">
   <si>
     <t>LuaFile(string)</t>
   </si>
@@ -547,9 +547,6 @@
     <t>记录值</t>
   </si>
   <si>
-    <t>是否重置</t>
-  </si>
-  <si>
     <t>基础属性</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -591,10 +588,6 @@
   </si>
   <si>
     <t>下一次时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -811,7 +804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -876,9 +869,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1254,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM37"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1298,7 +1288,7 @@
     <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -1376,13 +1366,13 @@
         <v>10</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>109</v>
@@ -1406,7 +1396,7 @@
         <v>17</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Y2" s="10" t="s">
         <v>18</v>
@@ -1421,7 +1411,7 @@
         <v>21</v>
       </c>
       <c r="AC2" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AD2" s="10" t="s">
         <v>22</v>
@@ -1436,7 +1426,7 @@
         <v>25</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AI2" s="10" t="s">
         <v>26</v>
@@ -1614,13 +1604,13 @@
         <v>38</v>
       </c>
       <c r="N4" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="O4" s="13" t="s">
-        <v>134</v>
-      </c>
       <c r="P4" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q4" s="13" t="s">
         <v>39</v>
@@ -1644,7 +1634,7 @@
         <v>45</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Y4" s="13" t="s">
         <v>46</v>
@@ -1659,13 +1649,13 @@
         <v>49</v>
       </c>
       <c r="AC4" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AD4" s="13" t="s">
         <v>50</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AF4" s="13" t="s">
         <v>51</v>
@@ -1674,7 +1664,7 @@
         <v>52</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AI4" s="13" t="s">
         <v>0</v>
@@ -4352,7 +4342,7 @@
     </row>
     <row r="36" spans="1:39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>115</v>
@@ -4437,93 +4427,6 @@
       <c r="AL36" s="17"/>
       <c r="AM36" s="8"/>
     </row>
-    <row r="37" spans="1:39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="17">
-        <v>0</v>
-      </c>
-      <c r="R37" s="17">
-        <v>0</v>
-      </c>
-      <c r="S37" s="17">
-        <v>0</v>
-      </c>
-      <c r="T37" s="17">
-        <v>0</v>
-      </c>
-      <c r="U37" s="17">
-        <v>0</v>
-      </c>
-      <c r="V37" s="17">
-        <v>0</v>
-      </c>
-      <c r="W37" s="17">
-        <v>0</v>
-      </c>
-      <c r="X37" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="17"/>
-      <c r="AJ37" s="17"/>
-      <c r="AK37" s="17"/>
-      <c r="AL37" s="17"/>
-      <c r="AM37" s="8"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
